--- a/database/data/location.xlsx
+++ b/database/data/location.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack/Desktop/CS316/316_project/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack/Desktop/CS316/316_project/database/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="24560" windowHeight="13460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Location" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,15 +27,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
-  <si>
-    <t>school_name</t>
-  </si>
-  <si>
-    <t>city_name</t>
-  </si>
-  <si>
-    <t>state</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="220">
+  <si>
+    <t>Princeton University</t>
+  </si>
+  <si>
+    <t>Princeton</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>Harvard University</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>University of Chicago</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Yale University</t>
+  </si>
+  <si>
+    <t>New Haven</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>Columbia University</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Massachusetts Institute of Technology</t>
+  </si>
+  <si>
+    <t>Stanford University</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>University of Pennsylvania</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>PA</t>
   </si>
   <si>
     <t>Duke University</t>
@@ -47,64 +104,589 @@
     <t>NC</t>
   </si>
   <si>
-    <t>Appalachian State University</t>
-  </si>
-  <si>
-    <t>Boone</t>
-  </si>
-  <si>
-    <t>Davidson College</t>
-  </si>
-  <si>
-    <t>Davidson</t>
-  </si>
-  <si>
-    <t>East Carolina University</t>
-  </si>
-  <si>
-    <t>Greenville</t>
-  </si>
-  <si>
-    <t>Elon University</t>
-  </si>
-  <si>
-    <t>Elon</t>
-  </si>
-  <si>
-    <t>High Point University</t>
-  </si>
-  <si>
-    <t>High Point</t>
+    <t>California Institute of Technology</t>
+  </si>
+  <si>
+    <t>Pasadena</t>
+  </si>
+  <si>
+    <t>Darthmouth College</t>
+  </si>
+  <si>
+    <t>Hanover</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>Johns Hopkins University</t>
+  </si>
+  <si>
+    <t>Baltimore</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Northwestern University</t>
+  </si>
+  <si>
+    <t>Evanston</t>
+  </si>
+  <si>
+    <t>Brown University</t>
+  </si>
+  <si>
+    <t>Providence</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>Cornell University</t>
+  </si>
+  <si>
+    <t>Ithaca</t>
+  </si>
+  <si>
+    <t>Rice University</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Vanderbilt University</t>
+  </si>
+  <si>
+    <t>Nashville</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>University of Notre Dame</t>
+  </si>
+  <si>
+    <t>South Bend</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Washington University in St. Louis</t>
+  </si>
+  <si>
+    <t>St. Louis</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Georgetown University</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>Emory University</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>University of California at Berkeley</t>
+  </si>
+  <si>
+    <t>Berkeley</t>
+  </si>
+  <si>
+    <t>University of California at Los Angeles</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>University of Southern California</t>
+  </si>
+  <si>
+    <t>Carnegie Mellon University</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>University of Virginia</t>
+  </si>
+  <si>
+    <t>Charlotesville</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Wake Forest University</t>
+  </si>
+  <si>
+    <t>Winston-Salem</t>
+  </si>
+  <si>
+    <t>University of Michigan at Ann Arbor</t>
+  </si>
+  <si>
+    <t>Ann Arbor</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Tufts University</t>
+  </si>
+  <si>
+    <t>Medford</t>
+  </si>
+  <si>
+    <t>New York University</t>
   </si>
   <si>
     <t>University of North Carolina at Chapel Hill</t>
   </si>
   <si>
-    <t>Chapel HIll</t>
-  </si>
-  <si>
-    <t>University of North Carolina Wilmington</t>
-  </si>
-  <si>
-    <t>Wilmington</t>
-  </si>
-  <si>
-    <t>Wake Forest University</t>
-  </si>
-  <si>
-    <t>Winston-Salem</t>
-  </si>
-  <si>
-    <t>University of North Carolina at Greensboro</t>
-  </si>
-  <si>
-    <t>Greensboro</t>
-  </si>
-  <si>
-    <t>Queens University of Charlotte</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
+    <t>Chapel Hill</t>
+  </si>
+  <si>
+    <t>Boston College</t>
+  </si>
+  <si>
+    <t>Chestnut Hill</t>
+  </si>
+  <si>
+    <t>College of William and Mary</t>
+  </si>
+  <si>
+    <t>Williamsburg</t>
+  </si>
+  <si>
+    <t>Brandeis University</t>
+  </si>
+  <si>
+    <t>Waltham</t>
+  </si>
+  <si>
+    <t>Georgia Institute of Technology</t>
+  </si>
+  <si>
+    <t>University of Rochester</t>
+  </si>
+  <si>
+    <t>Rochester</t>
+  </si>
+  <si>
+    <t>Boston University</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Case Western Reserve University</t>
+  </si>
+  <si>
+    <t>Cleveland</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>University of California at Santa Barbara</t>
+  </si>
+  <si>
+    <t>Santa Barbara</t>
+  </si>
+  <si>
+    <t>Northeastern University</t>
+  </si>
+  <si>
+    <t>Tulane University</t>
+  </si>
+  <si>
+    <t>New Orleans</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Rensselaer Polytechnic Institute</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>University of California at Irvine</t>
+  </si>
+  <si>
+    <t>Irvine</t>
+  </si>
+  <si>
+    <t>University of California at San Diego</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>University of Florida</t>
+  </si>
+  <si>
+    <t>Gainesville</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Lehigh University</t>
+  </si>
+  <si>
+    <t>Bethlehem</t>
+  </si>
+  <si>
+    <t>Pepperdine University</t>
+  </si>
+  <si>
+    <t>Malibu</t>
+  </si>
+  <si>
+    <t>University of California at Davis</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>University of Miami</t>
+  </si>
+  <si>
+    <t>Coral Gables</t>
+  </si>
+  <si>
+    <t>University of Wisconsin at Madison</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>Villanova University</t>
+  </si>
+  <si>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>Pennsylvania State University at University Park</t>
+  </si>
+  <si>
+    <t>University Park</t>
+  </si>
+  <si>
+    <t>University of Illinois at Urbana-Champaign</t>
+  </si>
+  <si>
+    <t>Champaign</t>
+  </si>
+  <si>
+    <t>Ohio State University at Columbus</t>
+  </si>
+  <si>
+    <t>Columbus</t>
+  </si>
+  <si>
+    <t>University of Georgia</t>
+  </si>
+  <si>
+    <t>Athens</t>
+  </si>
+  <si>
+    <t>George Washington University</t>
+  </si>
+  <si>
+    <t>Purdue University at West Lafayette</t>
+  </si>
+  <si>
+    <t>West Lafayette</t>
+  </si>
+  <si>
+    <t>University of Connecticut</t>
+  </si>
+  <si>
+    <t>Storrs</t>
+  </si>
+  <si>
+    <t>University of Texas at Austin</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>University of Washington</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>Brigham Young University at Provo</t>
+  </si>
+  <si>
+    <t>Provo</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>Fordham University</t>
+  </si>
+  <si>
+    <t>Southern Methodist University</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>Syracuse University</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>University of Maryland at College Park</t>
+  </si>
+  <si>
+    <t>College Park</t>
+  </si>
+  <si>
+    <t>Worcester Polytechnic Institute</t>
+  </si>
+  <si>
+    <t>Worcester</t>
+  </si>
+  <si>
+    <t>Clemson University</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>University of Pittsburgh</t>
+  </si>
+  <si>
+    <t>American University</t>
+  </si>
+  <si>
+    <t>Rutgers University at New Brunswick</t>
+  </si>
+  <si>
+    <t>Piscataway</t>
+  </si>
+  <si>
+    <t>Stevens Institute of Technology</t>
+  </si>
+  <si>
+    <t>Hoboken</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M University at College Station</t>
+  </si>
+  <si>
+    <t>College Station</t>
+  </si>
+  <si>
+    <t>University of Minnesota at Twin Cities</t>
+  </si>
+  <si>
+    <t>Minneapolis</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Virginia Tech</t>
+  </si>
+  <si>
+    <t>Blacksburg</t>
+  </si>
+  <si>
+    <t>Baylor University</t>
+  </si>
+  <si>
+    <t>Waco</t>
+  </si>
+  <si>
+    <t>Colorado School of Mines</t>
+  </si>
+  <si>
+    <t>Golden</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>University of Massachusetts at Amherst</t>
+  </si>
+  <si>
+    <t>Amherst</t>
+  </si>
+  <si>
+    <t>Miami University at Oxford</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>Texas Christian University</t>
+  </si>
+  <si>
+    <t>Fort Worth</t>
+  </si>
+  <si>
+    <t>University of Iowa</t>
+  </si>
+  <si>
+    <t>Iowa City</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>Clark University</t>
+  </si>
+  <si>
+    <t>Florida State University</t>
+  </si>
+  <si>
+    <t>Tallahassee</t>
+  </si>
+  <si>
+    <t>Michigan State University</t>
+  </si>
+  <si>
+    <t>East Lansing</t>
+  </si>
+  <si>
+    <t>North Carolina State University at Raleigh</t>
+  </si>
+  <si>
+    <t>Raleigh</t>
+  </si>
+  <si>
+    <t>University of California at Santa Cruz</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>University of Delaware</t>
+  </si>
+  <si>
+    <t>Newark</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Binghamton University SUNY</t>
+  </si>
+  <si>
+    <t>Binghamton</t>
+  </si>
+  <si>
+    <t>University of Denver</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>University of Tulsa</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Indiana University at Bloomington</t>
+  </si>
+  <si>
+    <t>Bloomington</t>
+  </si>
+  <si>
+    <t>Marquette University</t>
+  </si>
+  <si>
+    <t>Milwaukee</t>
+  </si>
+  <si>
+    <t>University of Colorado at Boulder</t>
+  </si>
+  <si>
+    <t>Boulder</t>
+  </si>
+  <si>
+    <t>University of San Diego</t>
+  </si>
+  <si>
+    <t>Drexel University</t>
+  </si>
+  <si>
+    <t>Saint Louis University</t>
+  </si>
+  <si>
+    <t>Yeshiva University</t>
+  </si>
+  <si>
+    <t>Rochester Institute of Technology</t>
+  </si>
+  <si>
+    <t>Stony Brook University SUNY</t>
+  </si>
+  <si>
+    <t>Stony Brook</t>
+  </si>
+  <si>
+    <t>SUNY College of Environmental Science and Forestry</t>
+  </si>
+  <si>
+    <t>University at Buffalo SUNY</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>University of Oklahoma</t>
+  </si>
+  <si>
+    <t>Norman</t>
+  </si>
+  <si>
+    <t>University of Vermont</t>
+  </si>
+  <si>
+    <t>Burlington</t>
+  </si>
+  <si>
+    <t>VT</t>
   </si>
 </sst>
 </file>
@@ -143,9 +725,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,14 +1005,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="14.5" style="2"/>
+    <col min="1" max="1" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -440,7 +1023,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -463,37 +1046,37 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -501,72 +1084,1059 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="1000" spans="3:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="C1000" s="1"/>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A78" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A81" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A82" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A83" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A86" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A87" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A88" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A90" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A91" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A92" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A93" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A95" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A96" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A97" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A98" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A99" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A100" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A101" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A102" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>219</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
